--- a/insezacweb/assets/files/direcciones.xlsx
+++ b/insezacweb/assets/files/direcciones.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="28">
   <si>
     <t>Nombre</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>Arturo Ramos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descripcion de Direccion </t>
   </si>
 </sst>
 </file>
@@ -469,8 +472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,7 +498,9 @@
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="C2" s="3" t="s">
         <v>26</v>
       </c>
@@ -504,7 +509,9 @@
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="C3" s="3" t="s">
         <v>26</v>
       </c>
@@ -513,7 +520,9 @@
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="C4" s="3" t="s">
         <v>26</v>
       </c>
@@ -522,7 +531,9 @@
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="C5" s="3" t="s">
         <v>26</v>
       </c>
@@ -531,7 +542,9 @@
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="C6" s="3" t="s">
         <v>26</v>
       </c>
@@ -540,7 +553,9 @@
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="C7" s="3" t="s">
         <v>26</v>
       </c>
@@ -549,7 +564,9 @@
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="C8" s="3" t="s">
         <v>26</v>
       </c>
@@ -558,7 +575,9 @@
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="C9" s="3" t="s">
         <v>26</v>
       </c>
@@ -567,7 +586,9 @@
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="C10" s="3" t="s">
         <v>26</v>
       </c>
@@ -576,7 +597,9 @@
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="C11" s="3" t="s">
         <v>26</v>
       </c>
@@ -585,7 +608,9 @@
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="C12" s="3" t="s">
         <v>26</v>
       </c>
@@ -594,7 +619,9 @@
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="C13" s="3" t="s">
         <v>26</v>
       </c>
@@ -603,7 +630,9 @@
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="C14" s="3" t="s">
         <v>26</v>
       </c>
@@ -612,7 +641,9 @@
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="C15" s="3" t="s">
         <v>26</v>
       </c>
@@ -621,7 +652,9 @@
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="C16" s="3" t="s">
         <v>26</v>
       </c>
@@ -630,7 +663,9 @@
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="C17" s="3" t="s">
         <v>26</v>
       </c>
@@ -639,7 +674,9 @@
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="C18" s="3" t="s">
         <v>26</v>
       </c>
@@ -648,7 +685,9 @@
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="C19" s="3" t="s">
         <v>26</v>
       </c>
@@ -657,7 +696,9 @@
       <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="C20" s="3" t="s">
         <v>26</v>
       </c>
@@ -666,7 +707,9 @@
       <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="C21" s="3" t="s">
         <v>26</v>
       </c>
@@ -675,7 +718,9 @@
       <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="C22" s="3" t="s">
         <v>26</v>
       </c>
@@ -684,7 +729,9 @@
       <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="3"/>
+      <c r="B23" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="C23" s="3" t="s">
         <v>26</v>
       </c>
@@ -693,7 +740,9 @@
       <c r="A24" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="3"/>
+      <c r="B24" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="C24" s="3" t="s">
         <v>26</v>
       </c>
